--- a/dados/cia_do_som_automotivo.xlsx
+++ b/dados/cia_do_som_automotivo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,35 +436,45 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>loja</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>nome</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>modelo</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>preco</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>politica</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>full</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -473,824 +483,1019 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>cia_do_som_automotivo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>ACQUA</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:180895499#searchVariation=MLB27685629&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=8f9d073a-c159-458c-a041-8ba92b23a3e2</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:180895499#searchVariation=MLB27685629&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=1337538d-18e8-4b2a-af12-e3cc9fd076df</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>cia_do_som_automotivo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>ACQUA</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="E3" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:180895499#searchVariation=MLB27687422&amp;position=11&amp;search_layout=grid&amp;type=product&amp;tracking_id=8f9d073a-c159-458c-a041-8ba92b23a3e2</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:180895499#searchVariation=MLB27687422&amp;position=8&amp;search_layout=grid&amp;type=product&amp;tracking_id=1337538d-18e8-4b2a-af12-e3cc9fd076df</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>cia_do_som_automotivo</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>K600</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="E4" t="n">
         <v>99</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:180895499#searchVariation=MLB32364344&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=8f9d073a-c159-458c-a041-8ba92b23a3e2</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:180895499#searchVariation=MLB32364344&amp;position=28&amp;search_layout=grid&amp;type=product&amp;tracking_id=1337538d-18e8-4b2a-af12-e3cc9fd076df</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>865</v>
+          <t>cia_do_som_automotivo</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>99</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:180895499#searchVariation=MLB24154371&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=8f9d073a-c159-458c-a041-8ba92b23a3e2</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:180895499#searchVariation=MLB28722231&amp;position=33&amp;search_layout=grid&amp;type=product&amp;tracking_id=1337538d-18e8-4b2a-af12-e3cc9fd076df</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>498</v>
+          <t>cia_do_som_automotivo</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>865</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:180895499#searchVariation=MLB21562641&amp;position=41&amp;search_layout=grid&amp;type=product&amp;tracking_id=8f9d073a-c159-458c-a041-8ba92b23a3e2</t>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:180895499#searchVariation=MLB24154371&amp;position=38&amp;search_layout=grid&amp;type=product&amp;tracking_id=1337538d-18e8-4b2a-af12-e3cc9fd076df</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>729.5</v>
+          <t>cia_do_som_automotivo</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>498</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:180895499#searchVariation=MLB24834408&amp;position=42&amp;search_layout=grid&amp;type=product&amp;tracking_id=8f9d073a-c159-458c-a041-8ba92b23a3e2</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:180895499#searchVariation=MLB21562641&amp;position=43&amp;search_layout=grid&amp;type=product&amp;tracking_id=1337538d-18e8-4b2a-af12-e3cc9fd076df</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>cia_do_som_automotivo</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="E8" t="n">
         <v>99</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:180895499#searchVariation=MLB28687615&amp;position=45&amp;search_layout=grid&amp;type=product&amp;tracking_id=8f9d073a-c159-458c-a041-8ba92b23a3e2</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:180895499#searchVariation=MLB28687615&amp;position=50&amp;search_layout=grid&amp;type=product&amp;tracking_id=1337538d-18e8-4b2a-af12-e3cc9fd076df</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>469</v>
+          <t>cia_do_som_automotivo</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>589</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:180895499#searchVariation=MLB23456525&amp;position=47&amp;search_layout=grid&amp;type=product&amp;tracking_id=8f9d073a-c159-458c-a041-8ba92b23a3e2</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:180895499#searchVariation=MLB22144397&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=74ebbe78-759a-4f38-8fed-cb44d73ce5f4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>99</v>
+          <t>cia_do_som_automotivo</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>729.5</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:180895499#searchVariation=MLB28722231&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=a75414cd-33ab-4f31-a9ea-306c037642e8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:180895499#searchVariation=MLB24834408&amp;position=14&amp;search_layout=grid&amp;type=product&amp;tracking_id=74ebbe78-759a-4f38-8fed-cb44d73ce5f4</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>589</v>
+          <t>cia_do_som_automotivo</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>665</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:180895499#searchVariation=MLB22144397&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=a75414cd-33ab-4f31-a9ea-306c037642e8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:180895499#searchVariation=MLB23998473&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=74ebbe78-759a-4f38-8fed-cb44d73ce5f4</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>665</v>
+          <t>cia_do_som_automotivo</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Controle Remoto Longa Distancia Jfa K600 Preto Laranja</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>99</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:180895499#searchVariation=MLB23998473&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=a75414cd-33ab-4f31-a9ea-306c037642e8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distancia-jfa-k600-preto-laranja/p/MLB31403178?pdp_filters=seller_id:180895499#searchVariation=MLB31403178&amp;position=28&amp;search_layout=grid&amp;type=product&amp;tracking_id=2d2ec257-93cd-49d6-9472-900fb91a292b</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Controle Remoto Longa Distancia Jfa K600 Preto Laranja</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>99</v>
+          <t>cia_do_som_automotivo</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Voltímetro Slim Jfa V12 - Led Vermelho - Saída Remote</t>
+        </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>55</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distancia-jfa-k600-preto-laranja/p/MLB31403178?pdp_filters=seller_id:180895499#searchVariation=MLB31403178&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=8b66ec46-deff-41be-892d-a7bd1e322216</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-820606775-voltimetro-slim-jfa-v12-led-vermelho-saida-remote-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3ec670ed-6f6c-4599-9f6e-e288a7a606dd</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Voltímetro Slim Jfa V12 - Led Vermelho - Saída Remote</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>55</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>cia_do_som_automotivo</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kit Controle Longa Distância Jfa Redline Interface Wr </t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>CONTROLE WR</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>104.5</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-820606775-voltimetro-slim-jfa-v12-led-vermelho-saida-remote-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D69d2f96b-7fb5-42d9-9aa9-b7fbe6a2828d</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1524929101-kit-controle-longa-distncia-jfa-redline-interface-wr-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D02cc9ef9-cea8-47c6-964c-b6d0bb7cfd34</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kit Controle Longa Distância Jfa Redline Interface Wr </t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CONTROLE WR</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>104.5</v>
+          <t>cia_do_som_automotivo</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Voltímetro Sequenciador Hv Slim Jfa Vs5hi - Led Vermelho - Remote</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>65</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1524929101-kit-controle-longa-distncia-jfa-redline-interface-wr-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1d23246b-8faa-4ffc-bca2-96649ad55010</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-820615903-voltimetro-sequenciador-hv-slim-jfa-vs5hi-led-vermelho-remote-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc9fd3859-c170-4e7e-a530-ab2289789308</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>cia_do_som_automotivo</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>Conversor De Sinal Rca Jfa Remoto Slim - 2 Canais - C/ Remote</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C16" t="n">
+      <c r="E16" t="n">
         <v>45.9</v>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-820662852-conversor-de-sinal-rca-jfa-remoto-slim-2-canais-c-remote-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1d23246b-8faa-4ffc-bca2-96649ad55010</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-820662852-conversor-de-sinal-rca-jfa-remoto-slim-2-canais-c-remote-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd189e138-c76d-4394-996b-10e9c0bbf4af</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Voltímetro Sequenciador Hv Slim Jfa Vs5hi - Led Vermelho - Remote</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>65</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>cia_do_som_automotivo</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva E Carregador De Bateria Jfa Storm 120a</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>645</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-820615903-voltimetro-sequenciador-hv-slim-jfa-vs5hi-led-vermelho-remote-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8c83b5de-3cac-4237-8d25-24a1d0dea185</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2622462820-fonte-automotiva-e-carregador-de-bateria-jfa-storm-120a-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da87ef4ae-886a-45f3-92c8-124564eed322</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 40a Lite Storm Slim Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>429</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>cia_do_som_automotivo</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva E Carregador De Bateria Jfa Storm 70a</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>539</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3533559801-fonte-carregador-de-bateria-jfa-40a-lite-storm-slim-bivolt-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfd322512-8b5a-4653-ab7b-b466763fdf54</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2622308050-fonte-automotiva-e-carregador-de-bateria-jfa-storm-70a-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D817c084c-2b04-466e-8e05-ed4dbe596fdb</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Fonte Automotiva E Carregador De Bateria Jfa Storm 70a</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>539</v>
+          <t>cia_do_som_automotivo</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Fonte Carregador De Bateria Jfa 40a Lite Storm Slim Bivolt</t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>429</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2622308050-fonte-automotiva-e-carregador-de-bateria-jfa-storm-70a-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfd322512-8b5a-4653-ab7b-b466763fdf54</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3533559801-fonte-carregador-de-bateria-jfa-40a-lite-storm-slim-bivolt-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc272057e-85e3-4adc-b0a9-da36435f02d4</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Fonte Automotiva E Carregador De Bateria Jfa Storm 120a</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>645</v>
+          <t>cia_do_som_automotivo</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa K600 Com Central - Preto/verde</t>
+        </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>99</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2622462820-fonte-automotiva-e-carregador-de-bateria-jfa-storm-120a-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D63c9613d-4d9f-447b-9bae-a4fd3b753397</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-880584986-controle-longa-distncia-jfa-k600-com-central-pretoverde-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7bcd1b80-afd0-4a67-a6f3-ee22e05ba17b</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>519</v>
+          <t>cia_do_som_automotivo</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva E Carregador De Bateria Jfa Storm 60a</t>
+        </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>489</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3533573823-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddcc22dff-a54e-4a57-ba1c-085d5371d36b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2622256595-fonte-automotiva-e-carregador-de-bateria-jfa-storm-60a-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7bcd1b80-afd0-4a67-a6f3-ee22e05ba17b</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 Com Central - Preto/verde</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>99</v>
+          <t>cia_do_som_automotivo</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
+        </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>519</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-880584986-controle-longa-distncia-jfa-k600-com-central-pretoverde-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddcc22dff-a54e-4a57-ba1c-085d5371d36b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3533573823-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc4f90870-6178-4b52-8004-725495e9175a</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>cia_do_som_automotivo</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>Fonte Carregador Jfa 200a Storm Medidor Cca 220v Monovolt</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>FONTE 200 MONO</t>
         </is>
       </c>
-      <c r="C23" t="n">
+      <c r="E23" t="n">
         <v>912.5</v>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2907270632-fonte-carregador-jfa-200a-storm-medidor-cca-220v-monovolt-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcd38e95d-010f-4b3a-9fec-7f8c54124052</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2907270632-fonte-carregador-jfa-200a-storm-medidor-cca-220v-monovolt-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc4f90870-6178-4b52-8004-725495e9175a</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Fonte Automotiva E Carregador De Bateria Jfa Storm 60a</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>489</v>
+          <t>cia_do_som_automotivo</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva E Carregador De Bateria Jfa Storm 40a</t>
+        </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>449.5</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2622256595-fonte-automotiva-e-carregador-de-bateria-jfa-storm-60a-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Deb46f955-052b-4bc9-9550-b569ae5323dd</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Fonte Automotiva E Carregador De Bateria Jfa Storm 40a</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>FONTE 40A STORM</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>449.5</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2622272655-fonte-automotiva-e-carregador-de-bateria-jfa-storm-40a-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D476a9860-2ef2-4ab9-b947-13905ab8c2bb</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2622272655-fonte-automotiva-e-carregador-de-bateria-jfa-storm-40a-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9c57bdb9-3f7d-40fc-ae87-b2be14c83ddf</t>
         </is>
       </c>
     </row>
